--- a/MainTop/19.05.25/таня мес с 18.04.2025 по 18.05.2025/спрос_18-5-2025 таня мес с 18-4-2025 по 18-5-2025_sorted.xlsx
+++ b/MainTop/19.05.25/таня мес с 18.04.2025 по 18.05.2025/спрос_18-5-2025 таня мес с 18-4-2025 по 18-5-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\19.05.25\таня мес с 18.04.2025 по 18.05.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C893A1-D3F7-47D4-BF05-F20C5A696DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C664E00F-DCFA-4861-A7BE-9A4E6F738B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,10 +689,13 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
